--- a/src/excel_template/posQC/Screen Linearity format.xlsx
+++ b/src/excel_template/posQC/Screen Linearity format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6520" tabRatio="780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6520" tabRatio="780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="22" r:id="rId1"/>
@@ -367,6 +367,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -592,6 +593,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1502,9 +1504,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2159,9 +2159,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7003,9 +7001,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7176,9 +7172,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
